--- a/module_openpyxl/statics/_write.xlsx
+++ b/module_openpyxl/statics/_write.xlsx
@@ -387,13 +387,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -429,13 +429,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
         <v>75</v>
@@ -534,13 +534,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
